--- a/Output_testing/R1_201907/Country/HKD/MN/MALDIVES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALDIVES_201907_HKD_MN.xlsx
@@ -547,14 +547,18 @@
       <c r="D7" s="8" t="n">
         <v>3.091964</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.375045</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.562965</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.369562</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-87.87033096116255</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MALDIVES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALDIVES_201907_HKD_MN.xlsx
@@ -814,136 +814,439 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>71.007593</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>63.38673005018934</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>55.778185</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>49.22271077759262</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>52.905328</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>30.2519480749988</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>29.618586</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>47.77313265917741</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-14.93957765225645</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.1905219209606472</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2.273186</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2.006023986289132</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>60.927738</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>34.83926545740593</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2.85544</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>4.605665980149138</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-90.4818955382502</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2.300123</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.053263172619182</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2.278992</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.011147621250985</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3.906787</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.233951133694518</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1.920295</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.097329081805428</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-22.20572048515107</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>3.099928</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.767229404762718</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3.519667</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.106009110451283</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3.58865</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.052036298864727</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.718691</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.772153037391261</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-0.8092511570006122</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2.083118</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.859548151824979</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2.722402</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.402444723978374</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.866671</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.067386524191024</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.68323</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.714956415742034</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>74.74959095703595</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.314914</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.173791354358606</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.400095</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.235545244904501</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>2.673154</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.528543892677035</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.466614</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.365566849876183</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-3.295032395129582</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.315265</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.174104683416917</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.528021</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.348436413717797</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.934249</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.106028495128474</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.370492</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.210527407498162</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>36.63110880705042</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4.197679</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.747164695617111</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>4.524967</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.993158650091446</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>5.778644</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.304303079491414</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.200537</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.936399440650235</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-70.73156639195088</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.323779</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.074380301403808</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.082619</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.9553814258984321</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.814648</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.037639102632544</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.09326</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.763367603401874</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>44.78155500523102</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.06772460303953289</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.1796272642930023</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.779035</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4454622485018274</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.084295</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.748907556784877</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>380.974729081739</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>24.091111</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>21.50554166180716</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>38.006303</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>33.53951478153243</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>38.70748</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>22.13343569241371</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>17.986977</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>29.0119939675234</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-9.652084989132071</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1278,565 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>5.779207002410119</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>62.74153768214481</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>45.59715079978329</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>46.18440207597101</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>3.007918115102348</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>42.2906034711361</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.558910277571828</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.8549582077928463</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>23.07109813489048</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>38.93776700150099</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.378323528934252</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-89.83860597231153</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.1601571040283781</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.425695583196683</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.610579698560301</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.013193997218329</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-17.94419322819014</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>6.420029596448426</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.691108683488316</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.279081723770301</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-22.87485723609072</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.144450582218939</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.808369662307189</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.122458767418934</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.2954849253981741</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-88.45543926419283</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>2.8465</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>92.06122710354971</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.5332693410124119</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>4.263142468892382</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>2.777792580355795</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1868,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>71.007593</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>65.18594031602125</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>55.778185</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>49.38616261651835</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>52.905328</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>30.34964681703075</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>29.618586</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>48.05960779248616</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-14.93957765225645</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.1959298193612588</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>2.273186</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>2.012685307949567</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>60.927738</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>34.9517789524069</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>2.85544</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>4.633284197799878</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-90.4818955382502</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.300123</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.111544332977288</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>2.278992</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.017825956756111</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>3.906787</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.241165684472594</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1.920295</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.115902445372383</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-22.20572048515107</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3.099928</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.845776248069176</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>3.519667</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.11632310764492</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3.58865</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.05866335522837</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.701843</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.761438615077304</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-1.781599145386459</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2.083118</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.912330778755302</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.722402</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.410422423740299</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.866671</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.070833651642678</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.68323</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.731236853256482</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>74.74959095703595</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.314914</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.207109013323417</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.400095</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.239648069376482</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2.673154</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.533480329004538</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.466614</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.379752146944804</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-3.295032395129582</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.315265</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.20743123611797</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.528021</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.352914111268679</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.934249</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.109600416921995</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.370492</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.223782999051337</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>36.63110880705042</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.351179</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.240400778692235</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>4.522967</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>4.004647762761484</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>5.754644</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.30120650528327</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.200537</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.948011203518222</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-70.55930688371102</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2.323779</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.133260864111019</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.082619</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.9585539218555154</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.814648</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.040990160711814</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.09326</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.773941768024085</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>44.78155500523102</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.06964694232003589</v>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1802237451898499</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.779035</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.446900869948402</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.084295</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.759395010665053</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>380.974729081739</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>23.845647</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>21.89062967025106</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>37.633258</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>33.32059297693875</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>38.168515</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>21.89573325734868</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>17.634263</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>28.61364696780429</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-9.936049624425037</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2332,543 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>13.467174</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>36.8072995089909</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>15.666657</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>46.93328724681398</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>26.143947</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>56.46280092947842</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>22.637721</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>62.80068194424852</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>126.4743448465047</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>20.115797</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>54.97873310622263</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>14.238147</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>42.6538375744974</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>16.455197</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>35.5381118415804</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>12.675172</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>35.1629673923733</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>35.24540171874033</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.8034043958919428</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.8644174601807337</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.1255810460189431</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.4982559543550651</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.258006</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.171384073236041</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.81135</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.430596559795911</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>0.533705</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.152636943842767</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.4016735403439988</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-26.48897012159521</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.09598596940350129</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.241560012423635</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.5239046258295289</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.6077171138828755</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.09556984525868842</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-83.9191523129347</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2609466342322759</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.2980704954786141</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.3806268906987924</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>2.388287</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>7.154695465588583</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>2.516718</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.435328775323598</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-99.75346223515999</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
